--- a/test_物件管理/已完成/test_物件管理_車室一覧.xlsx
+++ b/test_物件管理/已完成/test_物件管理_車室一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -1173,9 +1173,6 @@
     <t>DELETE FROM ap_defect_position;</t>
   </si>
   <si>
-    <t>DELETE FROM ap_contract_cancellation;</t>
-  </si>
-  <si>
     <t>DELETE FROM ap_price_raising;</t>
   </si>
   <si>
@@ -1183,9 +1180,6 @@
   </si>
   <si>
     <t>DELETE FROM ap_contractor_transfer;</t>
-  </si>
-  <si>
-    <t>DELETE FROM ap_contractor;</t>
   </si>
   <si>
     <t>DELETE FROM ap_subscription;</t>
@@ -1668,6 +1662,14 @@
   </si>
   <si>
     <t>001-001-012-賃料自動反映</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE ap_contractor;</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRUNCATE TABLE ap_contract_cancellation;</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1675,7 +1677,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="32">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1903,6 +1910,41 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1990,7 +2032,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
@@ -2036,8 +2078,23 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2312,8 +2369,17 @@
     <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="41">
+    <cellStyle name="Comma [0]" xfId="37"/>
+    <cellStyle name="Currency [0]" xfId="36"/>
+    <cellStyle name="Normal_Sheet1" xfId="39"/>
     <cellStyle name="ハイパーリンク 2" xfId="11"/>
     <cellStyle name="ハイパーリンク 2 2" xfId="18"/>
     <cellStyle name="標準 2" xfId="7"/>
@@ -2327,24 +2393,60 @@
     <cellStyle name="標準 4" xfId="10"/>
     <cellStyle name="標準 4 2" xfId="17"/>
     <cellStyle name="標準 5" xfId="4"/>
+    <cellStyle name="標準_Sheet1" xfId="40"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="23"/>
     <cellStyle name="常规 2 3" xfId="21"/>
+    <cellStyle name="常规 2 4" xfId="35"/>
     <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规 3 2" xfId="13"/>
     <cellStyle name="常规 4" xfId="19"/>
     <cellStyle name="常规 5" xfId="22"/>
     <cellStyle name="常规 6" xfId="20"/>
     <cellStyle name="常规 6 2" xfId="27"/>
+    <cellStyle name="常规 7" xfId="32"/>
+    <cellStyle name="常规 8" xfId="31"/>
+    <cellStyle name="常规 9" xfId="38"/>
     <cellStyle name="超链接 2" xfId="24"/>
     <cellStyle name="超链接 2 2" xfId="26"/>
     <cellStyle name="超链接 3" xfId="25"/>
+    <cellStyle name="超链接 4" xfId="29"/>
+    <cellStyle name="超链接 4 2" xfId="28"/>
     <cellStyle name="桁区切り 2" xfId="6"/>
     <cellStyle name="桁区切り 2 2" xfId="15"/>
+    <cellStyle name="千位分隔 2" xfId="30"/>
+    <cellStyle name="千位分隔 3" xfId="33"/>
+    <cellStyle name="千位分隔 3 2" xfId="34"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -2635,18 +2737,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW127"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" s="79" customFormat="1" ht="14.25">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:2" ht="14.25">
+      <c r="A1" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="75" t="s">
-        <v>415</v>
+      <c r="B1" s="97" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="79" customFormat="1" ht="14.25">
@@ -2654,7 +2756,7 @@
         <v>203</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="79" customFormat="1" ht="14.25">
@@ -2662,7 +2764,7 @@
         <v>203</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="79" customFormat="1" ht="14.25">
@@ -2670,35 +2772,35 @@
         <v>203</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25">
-      <c r="A5" s="66" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="79" customFormat="1" ht="14.25">
+      <c r="A5" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B5" s="64" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="79" customFormat="1" ht="14.25">
-      <c r="A6" s="77"/>
-      <c r="B6" s="75"/>
-    </row>
-    <row r="7" spans="1:2" ht="14.25">
-      <c r="A7" s="66" t="s">
+      <c r="B5" s="75" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.25">
+      <c r="A6" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>341</v>
-      </c>
+      <c r="B6" s="97" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="79" customFormat="1" ht="14.25">
+      <c r="A7" s="77"/>
+      <c r="B7" s="75"/>
     </row>
     <row r="8" spans="1:2" ht="14.25">
       <c r="A8" s="66" t="s">
         <v>203</v>
       </c>
       <c r="B8" s="64" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25">
@@ -2706,23 +2808,23 @@
         <v>203</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25">
       <c r="A10" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="75" t="s">
-        <v>344</v>
+      <c r="B10" s="64" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25">
       <c r="A11" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>345</v>
+      <c r="B11" s="75" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25">
@@ -2730,15 +2832,15 @@
         <v>203</v>
       </c>
       <c r="B12" s="64" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25">
+      <c r="A13" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="64" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.25">
-      <c r="A14" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25">
@@ -2746,7 +2848,7 @@
         <v>203</v>
       </c>
       <c r="B15" s="64" t="s">
-        <v>348</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="14.25">
@@ -2754,27 +2856,27 @@
         <v>203</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="79" customFormat="1" ht="14.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="75"/>
-    </row>
-    <row r="18" spans="1:2" ht="14.25">
-      <c r="A18" s="66" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25">
+      <c r="A17" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B18" s="75" t="s">
-        <v>419</v>
-      </c>
+      <c r="B17" s="64" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="79" customFormat="1" ht="14.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="75"/>
     </row>
     <row r="19" spans="1:2" ht="14.25">
       <c r="A19" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="64" t="s">
-        <v>349</v>
+      <c r="B19" s="75" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25">
@@ -2782,35 +2884,35 @@
         <v>203</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="79" customFormat="1" ht="14.25">
-      <c r="A21" s="77" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25">
+      <c r="A21" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B21" s="75" t="s">
-        <v>420</v>
+      <c r="B21" s="64" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="79" customFormat="1" ht="14.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="75"/>
-    </row>
-    <row r="23" spans="1:2" ht="14.25">
-      <c r="A23" s="66" t="s">
+      <c r="A22" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B23" s="64" t="s">
-        <v>351</v>
-      </c>
+      <c r="B22" s="75" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="79" customFormat="1" ht="14.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="75"/>
     </row>
     <row r="24" spans="1:2" ht="14.25">
       <c r="A24" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="64" t="s">
-        <v>207</v>
+      <c r="B24" s="97" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25">
@@ -2818,7 +2920,7 @@
         <v>203</v>
       </c>
       <c r="B25" s="64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25">
@@ -2826,27 +2928,27 @@
         <v>203</v>
       </c>
       <c r="B26" s="64" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="109" customFormat="1" ht="14.25">
-      <c r="A27" s="88"/>
-      <c r="B27" s="97"/>
-    </row>
-    <row r="28" spans="1:2" ht="14.25">
-      <c r="A28" s="66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25">
+      <c r="A27" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="64" t="s">
-        <v>209</v>
-      </c>
+      <c r="B27" s="64" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="109" customFormat="1" ht="14.25">
+      <c r="A28" s="123"/>
+      <c r="B28" s="122"/>
     </row>
     <row r="29" spans="1:2" ht="14.25">
       <c r="A29" s="66" t="s">
         <v>203</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>354</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25">
@@ -2854,7 +2956,7 @@
         <v>203</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25">
@@ -2862,7 +2964,7 @@
         <v>203</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25">
@@ -2870,7 +2972,7 @@
         <v>203</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:75" ht="14.25">
@@ -2878,7 +2980,7 @@
         <v>203</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:75" ht="14.25">
@@ -2886,7 +2988,7 @@
         <v>203</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="35" spans="1:75" ht="14.25">
@@ -2894,7 +2996,7 @@
         <v>203</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:75" ht="14.25">
@@ -2902,7 +3004,7 @@
         <v>203</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>360</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:75" ht="14.25">
@@ -2910,7 +3012,7 @@
         <v>203</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:75" ht="14.25">
@@ -2918,7 +3020,7 @@
         <v>203</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:75" ht="14.25">
@@ -2926,88 +3028,15 @@
         <v>203</v>
       </c>
       <c r="B39" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="63"/>
-      <c r="W39" s="63"/>
-      <c r="X39" s="63"/>
-      <c r="Y39" s="63"/>
-      <c r="Z39" s="63"/>
-      <c r="AA39" s="63"/>
-      <c r="AB39" s="63"/>
-      <c r="AC39" s="63"/>
-      <c r="AD39" s="63"/>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="63"/>
-      <c r="AG39" s="63"/>
-      <c r="AH39" s="63"/>
-      <c r="AI39" s="63"/>
-      <c r="AJ39" s="63"/>
-      <c r="AK39" s="63"/>
-      <c r="AL39" s="63"/>
-      <c r="AM39" s="63"/>
-      <c r="AN39" s="63"/>
-      <c r="AO39" s="63"/>
-      <c r="AP39" s="63"/>
-      <c r="AQ39" s="63"/>
-      <c r="AR39" s="63"/>
-      <c r="AS39" s="63"/>
-      <c r="AT39" s="63"/>
-      <c r="AU39" s="63"/>
-      <c r="AV39" s="63"/>
-      <c r="AW39" s="63"/>
-      <c r="AX39" s="63"/>
-      <c r="AY39" s="63"/>
-      <c r="AZ39" s="63"/>
-      <c r="BA39" s="63"/>
-      <c r="BB39" s="63"/>
-      <c r="BC39" s="63"/>
-      <c r="BD39" s="63"/>
-      <c r="BE39" s="63"/>
-      <c r="BF39" s="63"/>
-      <c r="BG39" s="63"/>
-      <c r="BH39" s="63"/>
-      <c r="BI39" s="63"/>
-      <c r="BJ39" s="63"/>
-      <c r="BK39" s="63"/>
-      <c r="BL39" s="63"/>
-      <c r="BM39" s="63"/>
-      <c r="BN39" s="63"/>
-      <c r="BO39" s="63"/>
-      <c r="BP39" s="63"/>
-      <c r="BQ39" s="63"/>
-      <c r="BR39" s="63"/>
-      <c r="BS39" s="63"/>
-      <c r="BT39" s="63"/>
-      <c r="BU39" s="63"/>
-      <c r="BV39" s="63"/>
-      <c r="BW39" s="63"/>
+        <v>360</v>
+      </c>
     </row>
     <row r="40" spans="1:75" ht="14.25">
       <c r="A40" s="66" t="s">
         <v>203</v>
       </c>
       <c r="B40" s="64" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C40" s="63"/>
       <c r="D40" s="63"/>
@@ -3088,7 +3117,7 @@
         <v>203</v>
       </c>
       <c r="B41" s="64" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C41" s="63"/>
       <c r="D41" s="63"/>
@@ -3169,7 +3198,7 @@
         <v>203</v>
       </c>
       <c r="B42" s="64" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C42" s="63"/>
       <c r="D42" s="63"/>
@@ -3250,7 +3279,7 @@
         <v>203</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
@@ -3331,7 +3360,7 @@
         <v>203</v>
       </c>
       <c r="B44" s="64" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C44" s="63"/>
       <c r="D44" s="63"/>
@@ -3412,7 +3441,7 @@
         <v>203</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C45" s="63"/>
       <c r="D45" s="63"/>
@@ -3493,7 +3522,7 @@
         <v>203</v>
       </c>
       <c r="B46" s="64" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C46" s="63"/>
       <c r="D46" s="63"/>
@@ -3574,7 +3603,7 @@
         <v>203</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C47" s="63"/>
       <c r="D47" s="63"/>
@@ -3655,7 +3684,7 @@
         <v>203</v>
       </c>
       <c r="B48" s="64" t="s">
-        <v>205</v>
+        <v>369</v>
       </c>
       <c r="C48" s="63"/>
       <c r="D48" s="63"/>
@@ -3736,7 +3765,7 @@
         <v>203</v>
       </c>
       <c r="B49" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" s="63"/>
       <c r="D49" s="63"/>
@@ -3812,13 +3841,86 @@
       <c r="BV49" s="63"/>
       <c r="BW49" s="63"/>
     </row>
-    <row r="52" spans="1:75" ht="14.25">
-      <c r="A52" s="57" t="s">
+    <row r="50" spans="1:75" ht="14.25">
+      <c r="A50" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="97" t="s">
-        <v>336</v>
-      </c>
+      <c r="B50" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+      <c r="P50" s="63"/>
+      <c r="Q50" s="63"/>
+      <c r="R50" s="63"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="63"/>
+      <c r="Y50" s="63"/>
+      <c r="Z50" s="63"/>
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="63"/>
+      <c r="AC50" s="63"/>
+      <c r="AD50" s="63"/>
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="63"/>
+      <c r="AG50" s="63"/>
+      <c r="AH50" s="63"/>
+      <c r="AI50" s="63"/>
+      <c r="AJ50" s="63"/>
+      <c r="AK50" s="63"/>
+      <c r="AL50" s="63"/>
+      <c r="AM50" s="63"/>
+      <c r="AN50" s="63"/>
+      <c r="AO50" s="63"/>
+      <c r="AP50" s="63"/>
+      <c r="AQ50" s="63"/>
+      <c r="AR50" s="63"/>
+      <c r="AS50" s="63"/>
+      <c r="AT50" s="63"/>
+      <c r="AU50" s="63"/>
+      <c r="AV50" s="63"/>
+      <c r="AW50" s="63"/>
+      <c r="AX50" s="63"/>
+      <c r="AY50" s="63"/>
+      <c r="AZ50" s="63"/>
+      <c r="BA50" s="63"/>
+      <c r="BB50" s="63"/>
+      <c r="BC50" s="63"/>
+      <c r="BD50" s="63"/>
+      <c r="BE50" s="63"/>
+      <c r="BF50" s="63"/>
+      <c r="BG50" s="63"/>
+      <c r="BH50" s="63"/>
+      <c r="BI50" s="63"/>
+      <c r="BJ50" s="63"/>
+      <c r="BK50" s="63"/>
+      <c r="BL50" s="63"/>
+      <c r="BM50" s="63"/>
+      <c r="BN50" s="63"/>
+      <c r="BO50" s="63"/>
+      <c r="BP50" s="63"/>
+      <c r="BQ50" s="63"/>
+      <c r="BR50" s="63"/>
+      <c r="BS50" s="63"/>
+      <c r="BT50" s="63"/>
+      <c r="BU50" s="63"/>
+      <c r="BV50" s="63"/>
+      <c r="BW50" s="63"/>
     </row>
     <row r="53" spans="1:75" ht="14.25">
       <c r="A53" s="16" t="s">
@@ -4087,7 +4189,7 @@
         <v>203</v>
       </c>
       <c r="B58" s="97" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C58" s="75"/>
       <c r="D58" s="75"/>
@@ -4101,7 +4203,7 @@
         <v>203</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C59" s="75"/>
       <c r="D59" s="75"/>
@@ -4115,7 +4217,7 @@
         <v>203</v>
       </c>
       <c r="B60" s="97" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C60" s="75"/>
       <c r="D60" s="75"/>
@@ -4129,7 +4231,7 @@
         <v>203</v>
       </c>
       <c r="B61" s="97" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C61" s="75"/>
       <c r="D61" s="75"/>
@@ -4143,7 +4245,7 @@
         <v>203</v>
       </c>
       <c r="B62" s="97" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C62" s="75"/>
       <c r="D62" s="75"/>
@@ -4157,7 +4259,7 @@
         <v>203</v>
       </c>
       <c r="B63" s="75" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C63" s="79"/>
       <c r="D63" s="79"/>
@@ -4171,13 +4273,13 @@
         <v>87</v>
       </c>
       <c r="B65" s="70" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:75">
       <c r="A66" s="79"/>
       <c r="B66" s="71" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:75">
@@ -4197,43 +4299,43 @@
         <v>22</v>
       </c>
       <c r="G67" s="68" t="s">
+        <v>386</v>
+      </c>
+      <c r="H67" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="I67" s="68" t="s">
         <v>388</v>
       </c>
-      <c r="H67" s="68" t="s">
+      <c r="J67" s="68" t="s">
         <v>389</v>
       </c>
-      <c r="I67" s="68" t="s">
+      <c r="K67" s="68" t="s">
         <v>390</v>
       </c>
-      <c r="J67" s="68" t="s">
+      <c r="L67" s="68" t="s">
         <v>391</v>
-      </c>
-      <c r="K67" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="L67" s="68" t="s">
-        <v>393</v>
       </c>
       <c r="M67" s="68" t="s">
         <v>10</v>
       </c>
       <c r="N67" s="68" t="s">
+        <v>392</v>
+      </c>
+      <c r="O67" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="P67" s="68" t="s">
         <v>394</v>
       </c>
-      <c r="O67" s="68" t="s">
+      <c r="Q67" s="68" t="s">
         <v>395</v>
       </c>
-      <c r="P67" s="68" t="s">
+      <c r="R67" s="68" t="s">
         <v>396</v>
       </c>
-      <c r="Q67" s="68" t="s">
+      <c r="S67" s="68" t="s">
         <v>397</v>
-      </c>
-      <c r="R67" s="68" t="s">
-        <v>398</v>
-      </c>
-      <c r="S67" s="68" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:75">
@@ -4253,10 +4355,10 @@
         <v>214</v>
       </c>
       <c r="G68" s="76" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H68" s="76" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I68" s="73" t="s">
         <v>214</v>
@@ -4309,10 +4411,10 @@
         <v>214</v>
       </c>
       <c r="G69" s="76" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H69" s="76" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I69" s="73" t="s">
         <v>214</v>
@@ -4365,10 +4467,10 @@
         <v>214</v>
       </c>
       <c r="G70" s="76" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H70" s="76" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I70" s="73" t="s">
         <v>214</v>
@@ -4421,10 +4523,10 @@
         <v>214</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H71" s="76" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I71" s="73" t="s">
         <v>214</v>
@@ -4477,10 +4579,10 @@
         <v>214</v>
       </c>
       <c r="G72" s="76" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H72" s="76" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I72" s="73" t="s">
         <v>214</v>
@@ -4533,10 +4635,10 @@
         <v>214</v>
       </c>
       <c r="G73" s="76" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H73" s="76" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I73" s="73" t="s">
         <v>214</v>
@@ -4589,10 +4691,10 @@
         <v>214</v>
       </c>
       <c r="G74" s="76" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H74" s="76" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I74" s="73" t="s">
         <v>214</v>
@@ -5694,7 +5796,7 @@
         <v>214</v>
       </c>
       <c r="BU82" s="65" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BV82" s="13">
         <v>1</v>
@@ -5912,7 +6014,7 @@
         <v>214</v>
       </c>
       <c r="BU83" s="65" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="BV83" s="13">
         <v>1</v>
@@ -6130,7 +6232,7 @@
         <v>214</v>
       </c>
       <c r="BU84" s="65" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="BV84" s="13">
         <v>1</v>
@@ -6406,7 +6508,7 @@
     <row r="90" spans="1:74">
       <c r="A90" s="17"/>
       <c r="B90" s="71" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
@@ -6576,7 +6678,7 @@
     </row>
     <row r="100" spans="1:74" s="79" customFormat="1" ht="12.75" customHeight="1">
       <c r="B100" s="71" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C100" s="56" t="s">
         <v>88</v>
@@ -6950,7 +7052,7 @@
         <v>139</v>
       </c>
       <c r="Y104" s="87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Z104" s="76">
         <v>0</v>
@@ -7230,7 +7332,7 @@
     </row>
     <row r="109" spans="1:74" s="79" customFormat="1" ht="12.75" customHeight="1">
       <c r="B109" s="71" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C109" s="56" t="s">
         <v>88</v>
@@ -7302,7 +7404,7 @@
         <v>214</v>
       </c>
       <c r="G112" s="87" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H112" s="76" t="s">
         <v>289</v>
@@ -7325,7 +7427,7 @@
         <v>214</v>
       </c>
       <c r="G113" s="87" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H113" s="76" t="s">
         <v>289</v>
@@ -7348,7 +7450,7 @@
         <v>214</v>
       </c>
       <c r="G114" s="87" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="H114" s="76" t="s">
         <v>280</v>
@@ -7371,7 +7473,7 @@
         <v>214</v>
       </c>
       <c r="G115" s="87" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="H115" s="76" t="s">
         <v>292</v>
@@ -7395,7 +7497,7 @@
         <v>214</v>
       </c>
       <c r="G116" s="87" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="H116" s="76" t="s">
         <v>281</v>
@@ -7417,7 +7519,7 @@
     </row>
     <row r="119" spans="1:75" s="79" customFormat="1" ht="12.75" customHeight="1">
       <c r="B119" s="71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C119" s="72"/>
       <c r="D119" s="72"/>
@@ -7822,7 +7924,7 @@
         <v>300</v>
       </c>
       <c r="B6" s="109" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -7858,7 +7960,7 @@
         <v>300</v>
       </c>
       <c r="B10" s="109" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -7871,7 +7973,7 @@
         <v>306</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>312</v>
@@ -7892,7 +7994,7 @@
         <v>300</v>
       </c>
       <c r="B14" s="109" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -7924,10 +8026,10 @@
     </row>
     <row r="18" spans="1:4" ht="14.25">
       <c r="A18" s="85" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B18" s="109" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -7937,58 +8039,58 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D20" s="83" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25">
       <c r="A22" s="85" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B22" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25">
       <c r="A23" s="85" t="s">
+        <v>434</v>
+      </c>
+      <c r="B23" t="s">
         <v>436</v>
-      </c>
-      <c r="B23" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25">
       <c r="A24" s="85" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B24" s="109" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25">
       <c r="A26" s="85" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B26" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25">
       <c r="A27" s="85" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B27" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25">
       <c r="A28" s="85" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B28" s="109" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -8035,7 +8137,7 @@
         <v>334</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C4" s="83"/>
       <c r="D4" s="83"/>
@@ -8045,7 +8147,7 @@
         <v>334</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C5" s="83"/>
       <c r="D5" s="83"/>
@@ -8159,7 +8261,7 @@
         <v>333</v>
       </c>
       <c r="B17" s="109" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -9039,7 +9141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -9078,7 +9180,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C5" s="102">
         <v>1111</v>
@@ -9092,7 +9194,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="104" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C6" s="102">
         <v>2222</v>
@@ -9106,7 +9208,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C7" s="102">
         <v>3333</v>
@@ -9120,7 +9222,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C8" s="102">
         <v>4444</v>
@@ -9131,10 +9233,10 @@
     </row>
     <row r="9" spans="1:4" s="95" customFormat="1" ht="14.25">
       <c r="A9" s="98" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C9" s="100"/>
       <c r="D9" s="100"/>
@@ -9156,7 +9258,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C12" s="102" t="s">
         <v>160</v>
@@ -9170,7 +9272,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C13" s="97">
         <v>100006</v>
@@ -9184,7 +9286,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C14" s="102" t="s">
         <v>112</v>
@@ -9198,7 +9300,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C15" s="102" t="s">
         <v>178</v>
@@ -9212,7 +9314,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="104" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C16" s="102" t="s">
         <v>217</v>
@@ -9226,7 +9328,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C17" s="102">
         <v>11</v>
@@ -9240,7 +9342,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C18" s="102">
         <v>22</v>
@@ -9254,7 +9356,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C19" s="102">
         <v>33</v>
@@ -9268,7 +9370,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="104" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C20" s="102">
         <v>44</v>
@@ -9282,7 +9384,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="104" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C21" s="102">
         <v>55</v>
@@ -9296,7 +9398,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="104" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C22" s="102">
         <v>66</v>
@@ -9310,7 +9412,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="104" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C23" s="102">
         <v>77</v>
@@ -9324,7 +9426,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="104" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C24" s="102">
         <v>88</v>
@@ -9338,7 +9440,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="104" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C25" s="102">
         <v>99</v>
@@ -9352,7 +9454,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="104" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C26" s="96">
         <v>100</v>
@@ -9382,7 +9484,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="104" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C30" s="102" t="s">
         <v>223</v>
@@ -9406,10 +9508,10 @@
         <v>4</v>
       </c>
       <c r="B33" s="104" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C33" s="102" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D33" s="103" t="s">
         <v>225</v>
@@ -9420,7 +9522,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C34" s="102">
         <v>1</v>
@@ -9434,7 +9536,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="104" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C35" s="102" t="s">
         <v>117</v>
@@ -9448,7 +9550,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C36" s="102" t="s">
         <v>118</v>
@@ -9462,7 +9564,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C37" s="102">
         <v>1</v>
@@ -9476,7 +9578,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C38" s="102" t="s">
         <v>131</v>
@@ -9490,11 +9592,11 @@
         <v>19</v>
       </c>
       <c r="B41" s="96" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C41" s="95"/>
       <c r="D41" s="105" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25">
@@ -9502,7 +9604,7 @@
         <v>300</v>
       </c>
       <c r="B42" s="109" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C42" s="95"/>
       <c r="D42" s="95"/>
@@ -11017,7 +11119,7 @@
         <v>214</v>
       </c>
       <c r="G17" s="112" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H17" s="112" t="s">
         <v>289</v>
@@ -11290,7 +11392,7 @@
         <v>214</v>
       </c>
       <c r="G20" s="112" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H20" s="112" t="s">
         <v>281</v>
@@ -11366,7 +11468,7 @@
     <row r="21" spans="1:75" s="95" customFormat="1" ht="12.75" customHeight="1">
       <c r="A21" s="111"/>
       <c r="B21" s="112" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C21" s="112" t="s">
         <v>201</v>
@@ -11803,7 +11905,7 @@
         <v>234</v>
       </c>
       <c r="H31" s="65" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I31" s="65" t="s">
         <v>131</v>
@@ -11818,7 +11920,7 @@
         <v>117</v>
       </c>
       <c r="M31" s="65" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N31" s="62"/>
       <c r="O31" s="62"/>
@@ -11886,7 +11988,7 @@
     <row r="32" spans="1:75" s="63" customFormat="1" ht="12.75" customHeight="1">
       <c r="A32" s="114"/>
       <c r="B32" s="117" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C32" s="117" t="s">
         <v>201</v>
@@ -12134,13 +12236,13 @@
     </row>
     <row r="5" spans="2:25">
       <c r="B5" s="81" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C5" s="78" t="s">
         <v>282</v>
       </c>
       <c r="D5" s="78" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E5" s="78"/>
       <c r="F5" s="78"/>
@@ -12165,17 +12267,17 @@
     </row>
     <row r="6" spans="2:25">
       <c r="B6" s="78" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="81" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E6" s="81" t="s">
         <v>202</v>
       </c>
       <c r="F6" s="78" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H6" s="78"/>
       <c r="I6" s="80"/>
@@ -12198,7 +12300,7 @@
     </row>
     <row r="7" spans="2:25" s="8" customFormat="1">
       <c r="B7" s="78" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C7" s="78"/>
       <c r="G7" s="78"/>
@@ -12223,17 +12325,17 @@
     </row>
     <row r="8" spans="2:25">
       <c r="B8" s="78" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="81" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E8" s="81" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F8" s="81" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G8" s="78"/>
       <c r="H8" s="78"/>

--- a/test_物件管理/已完成/test_物件管理_車室一覧.xlsx
+++ b/test_物件管理/已完成/test_物件管理_車室一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -2737,7 +2737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -8105,7 +8105,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9141,8 +9141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9231,19 +9231,27 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="95" customFormat="1" ht="14.25">
+    <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>454</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="95" customFormat="1" ht="14.25">
+      <c r="A10" s="98" t="s">
         <v>433</v>
       </c>
-      <c r="B9" s="109" t="s">
+      <c r="B10" s="109" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-    </row>
-    <row r="10" spans="1:4" s="95" customFormat="1" ht="14.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="100"/>
       <c r="C10" s="100"/>
       <c r="D10" s="100"/>
     </row>
@@ -9253,19 +9261,11 @@
       <c r="C11" s="100"/>
       <c r="D11" s="100"/>
     </row>
-    <row r="12" spans="1:4" ht="14.25">
-      <c r="A12" s="98" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="104" t="s">
-        <v>454</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="103" t="s">
-        <v>7</v>
-      </c>
+    <row r="12" spans="1:4" s="95" customFormat="1" ht="14.25">
+      <c r="A12" s="98"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
     </row>
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="98" t="s">

--- a/test_物件管理/已完成/test_物件管理_車室一覧.xlsx
+++ b/test_物件管理/已完成/test_物件管理_車室一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="488">
   <si>
     <t>URL:</t>
   </si>
@@ -2737,8 +2737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW127"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4185,9 +4185,7 @@
       <c r="H57" s="70"/>
     </row>
     <row r="58" spans="1:75" s="79" customFormat="1" ht="14.25">
-      <c r="A58" s="88" t="s">
-        <v>203</v>
-      </c>
+      <c r="A58" s="88"/>
       <c r="B58" s="97" t="s">
         <v>423</v>
       </c>
@@ -9141,7 +9139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
